--- a/PRUEBA HSA 26.xlsx
+++ b/PRUEBA HSA 26.xlsx
@@ -8,31 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\HSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3ADC3-8DDD-4C9F-B67D-CDF506F6EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9D1F9-FE84-4CDD-BD2E-C0FDDF6C866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
-    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId2"/>
-    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId3"/>
-    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId4"/>
-    <sheet name="JUAN DAVID OSPINA" sheetId="5" r:id="rId5"/>
-    <sheet name="JULIANA NUÑEZ" sheetId="6" r:id="rId6"/>
-    <sheet name="LAURA ORTEGON" sheetId="7" r:id="rId7"/>
-    <sheet name="LUISA CUCHIBAQUE" sheetId="8" r:id="rId8"/>
-    <sheet name="MIGUEL CALDERON" sheetId="9" r:id="rId9"/>
-    <sheet name="MONICA PARDO" sheetId="10" r:id="rId10"/>
-    <sheet name="RUBÉN MARTINEZ" sheetId="11" r:id="rId11"/>
-    <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
-    <sheet name="STEPHANI GUERRERO" sheetId="13" r:id="rId13"/>
+    <sheet name="HSA" sheetId="14" r:id="rId1"/>
+    <sheet name="ANDREA TOBAR (2)" sheetId="15" r:id="rId2"/>
+    <sheet name="ANYI AGUIRRE" sheetId="16" r:id="rId3"/>
+    <sheet name="GENESIS CUELLO" sheetId="17" r:id="rId4"/>
+    <sheet name="JHON TRUJILLO" sheetId="18" r:id="rId5"/>
+    <sheet name="JUAN DAVID OSPINA" sheetId="19" r:id="rId6"/>
+    <sheet name="JULIANA NUÑEZ" sheetId="20" r:id="rId7"/>
+    <sheet name="LAURA ORTEGON" sheetId="21" r:id="rId8"/>
+    <sheet name="LUISA CUCHIBAQUE" sheetId="22" r:id="rId9"/>
+    <sheet name="MIGUEL CALDERON" sheetId="23" r:id="rId10"/>
+    <sheet name="MONICA PARDO" sheetId="24" r:id="rId11"/>
+    <sheet name="RUBÉN MARTINEZ" sheetId="25" r:id="rId12"/>
+    <sheet name="SHANNERY CHAPARRO" sheetId="26" r:id="rId13"/>
+    <sheet name="STEPHANI GUERRERO" sheetId="27" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$51</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="413">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -109,40 +126,7 @@
     <t>FINANCIACIÓN</t>
   </si>
   <si>
-    <t>18/12/2024 RESOLUCIÓN NO. 06727 APROBADA EN SALA
-18/11/2024 ENVÍO RESOLUCIÓN A SHAN CON AJUSTES
-12/11/2024 ENVÍO CORRECCIONES A MIGUE
-21/10/2024 REMITO RESOLUCIÓN A REVISIÓN (MIGUE)
-OFICIO 401 - SE REALIZA RESPUESTA DERECHO DE PETICIÓN (SEGUNDO FILTRO)
-19/09/2024 OFICIO 400 SOLICITUD COMPRA EFICIENTE
-12/08/2024 OFICIO 366 REITERANDO A FUNCIÓN PÚBLICA
-23/07/2024 SE DA RESPUESTA A DERECHO DE PETICIÓN RADICADA POR LA FISCALÍA
-SE DA RESPUESTA ACCIÓN DE TUTELA
-17/07/2024 SE REALIZA OFICIO 333 REQUERIMIENTO FONDO NACIONAL (ENVIADO A MONI)
-17/06/2024 PASA A FIRMA
-14/06/2024 AJUSTADO
-14/06/2024 DEVUELTO
-12/06/2024 AJUSTADO
-12/06/2024 DEVUELTO PARA CORRECCIÓN
-12/06/2024 AUTO AJUSTADO
-05/06/2024 DEVUELTO PARA CORRECCIÓN
-05/06/2024 AUTO SEGUNDO FILTRO
-28/05/2024 ENVÍO AUTO AJUSTADO
-28/05/2024 DEVUELVE PARA AJUSTES
-21/05/2024 ENVÍO AUTO AVOCA A MIGUEL (EN REVISIÓN)
-REPARTO EL 14/05/2024 (5 FOLIOS)</t>
-  </si>
-  <si>
     <t>DESPACHO</t>
-  </si>
-  <si>
-    <t>18/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/02/2025- EN TERMINOS PARA POSIBLE RECURSOS
-13/02/2025 EN ESPERA DE COMUNICACIÓNES
-04/02/2025 A LA ESPERA DE COMUNICACIONES
-23/01/2025 EN ESPERA DE COMUNICACIONES </t>
   </si>
   <si>
     <t>03/02/2025</t>
@@ -280,14 +264,6 @@
     <t>11/02/2025 - FUE DEBIDAMENTE NOTIFICADO. 
 10/02/2025 - OFICIO N° 040 - SE PROCEDE A COMUNICAR AL QUEJOSO, QUE ESTA CORPORACIÓN CARECE DE COMPETENCIA, POR SER UN ASUNTO DE CARACTER PENAL
 28/01/2025  RECIBIDO</t>
-  </si>
-  <si>
-    <t>11/02/2025</t>
-  </si>
-  <si>
-    <t>27/02/2025 - EN ESPERA POR POSIBLE RECURSO
-21/02/2025 - ESPERANDO TERMINO PARA ARCHIVAR
-13/02/2025 EN ESPERA DE NOTIFICACIONES</t>
   </si>
   <si>
     <t>28/01/2025</t>
@@ -1553,6 +1529,59 @@
   <si>
     <t>ORIGEN: ARLET MONCADA DESTINO: STEPHANI GUERRERO</t>
   </si>
+  <si>
+    <t>CNE-E-DG-2025-004014</t>
+  </si>
+  <si>
+    <t>QUEJA CONTRA EL SEÑOR DANIEL BECERRA MIEMBRO DE LA JUNTA NACIONAL DE COORDINACIÓN DEL MOVIMIENTO POLITICO COLOMBIA HUMANA POR PRESUNTAMENTE UTILIZAR DINEROS DEL PARTIDO SIN DEBIDA AUTORIZACIÓN</t>
+  </si>
+  <si>
+    <t>DELITOS CONTRA LA ADMINISTRACIÓN PUBLICA</t>
+  </si>
+  <si>
+    <t>04/03/2025 - RECIBIDO</t>
+  </si>
+  <si>
+    <t>05/03/2025 - SE ARCHIVA CON OFICIO No 063 DE 2025
+18/12/2024 RESOLUCIÓN NO. 06727 APROBADA EN SALA
+18/11/2024 ENVÍO RESOLUCIÓN A SHAN CON AJUSTES
+12/11/2024 ENVÍO CORRECCIONES A MIGUE
+21/10/2024 REMITO RESOLUCIÓN A REVISIÓN (MIGUE)
+OFICIO 401 - SE REALIZA RESPUESTA DERECHO DE PETICIÓN (SEGUNDO FILTRO)
+19/09/2024 OFICIO 400 SOLICITUD COMPRA EFICIENTE
+12/08/2024 OFICIO 366 REITERANDO A FUNCIÓN PÚBLICA
+23/07/2024 SE DA RESPUESTA A DERECHO DE PETICIÓN RADICADA POR LA FISCALÍA
+SE DA RESPUESTA ACCIÓN DE TUTELA
+17/07/2024 SE REALIZA OFICIO 333 REQUERIMIENTO FONDO NACIONAL (ENVIADO A MONI)
+17/06/2024 PASA A FIRMA
+14/06/2024 AJUSTADO
+14/06/2024 DEVUELTO
+12/06/2024 AJUSTADO
+12/06/2024 DEVUELTO PARA CORRECCIÓN
+12/06/2024 AUTO AJUSTADO
+05/06/2024 DEVUELTO PARA CORRECCIÓN
+05/06/2024 AUTO SEGUNDO FILTRO
+28/05/2024 ENVÍO AUTO AJUSTADO
+28/05/2024 DEVUELVE PARA AJUSTES
+21/05/2024 ENVÍO AUTO AVOCA A MIGUEL (EN REVISIÓN)
+REPARTO EL 14/05/2024 (5 FOLIOS)</t>
+  </si>
+  <si>
+    <t>ARCHIVO DESPACHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/03/2025 - SE ARCHIVA CON OFICIO No 063 DE 2025
+27/02/2025- EN TERMINOS PARA POSIBLE RECURSOS
+13/02/2025 EN ESPERA DE COMUNICACIÓNES
+04/02/2025 A LA ESPERA DE COMUNICACIONES
+23/01/2025 EN ESPERA DE COMUNICACIONES </t>
+  </si>
+  <si>
+    <t>05/03/2025 - SE ARCHIVA CON OFICIO No 063 DE 2025
+27/02/2025 - EN ESPERA POR POSIBLE RECURSO
+21/02/2025 - ESPERANDO TERMINO PARA ARCHIVAR
+13/02/2025 EN ESPERA DE NOTIFICACIONES</t>
+  </si>
 </sst>
 </file>
 
@@ -1561,7 +1590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,8 +1623,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1620,8 +1654,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1668,12 +1714,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1707,6 +1807,68 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2010,12 +2172,2755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F86830-3ED7-4436-83A1-3121276C3708}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="243.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="213.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="60" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45693</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45719</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45715</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="5">
+        <v>45713</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45638</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45698</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45638</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="10">
+        <v>46733</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="10">
+        <v>45700</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O4" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44861</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45957</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10">
+        <v>45705</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45706</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45541</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="7">
+        <v>46636</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="7">
+        <v>45692</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O6" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45362</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46285</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7">
+        <v>45679</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10">
+        <v>45086</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="10">
+        <v>46164</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="10">
+        <v>45720</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="7">
+        <v>45691</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O9" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7">
+        <v>45705</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="204" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45162</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="5">
+        <v>46164</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5">
+        <v>45630</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10">
+        <v>45100</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="10">
+        <v>46172</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" s="10">
+        <v>45705</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45266</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="10">
+        <v>46232</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="10">
+        <v>45714</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45715</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45684</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="10">
+        <v>46710</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="10">
+        <v>45685</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45685</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="16">
+        <v>44203</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="16">
+        <v>45298</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="16">
+        <v>45698</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" s="16">
+        <v>45709</v>
+      </c>
+      <c r="O15" s="18">
+        <v>45666</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="16">
+        <v>44627</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="16">
+        <v>45701</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="16">
+        <v>45708</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="16">
+        <v>45708</v>
+      </c>
+      <c r="O16" s="18">
+        <v>45708</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16">
+        <v>45266</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="16">
+        <v>46174</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="16">
+        <v>45714</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18">
+        <v>45715</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45638</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="5">
+        <v>46733</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="5">
+        <v>45665</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45709</v>
+      </c>
+      <c r="O18" s="20">
+        <v>45691</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="7">
+        <v>45665</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45708</v>
+      </c>
+      <c r="O19" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10">
+        <v>45518</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="10">
+        <v>46613</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="10">
+        <v>45694</v>
+      </c>
+      <c r="O20" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>45684</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="10">
+        <v>46779</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="10">
+        <v>45694</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O21" s="5">
+        <v>45688</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45709</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="10">
+        <v>46804</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="10">
+        <v>45712</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="5">
+        <v>45713</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45264</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="5">
+        <v>46315</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45670</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N23" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O23" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45161</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="7">
+        <v>46257</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" s="7">
+        <v>45328</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O24" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10">
+        <v>45070</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="10">
+        <v>46166</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="10">
+        <v>45700</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N25" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O25" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45246</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="5">
+        <v>45694</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O26" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45246</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45708</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O27" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="23">
+        <v>45653</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="23">
+        <v>46549</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="23">
+        <v>45712</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N28" s="23">
+        <v>45713</v>
+      </c>
+      <c r="O28" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="10">
+        <v>45541</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="10">
+        <v>46636</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="10">
+        <v>45705</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="N29" s="10">
+        <v>45707</v>
+      </c>
+      <c r="O29" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10">
+        <v>45667</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="10">
+        <v>45694</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="N30" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O30" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="25">
+        <v>46324</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="25">
+        <v>45715</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="N31" s="25">
+        <v>45715</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45715</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N32" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O32" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45466</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45466</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="5">
+        <v>45673</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N33" s="5">
+        <v>45685</v>
+      </c>
+      <c r="O33" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="23">
+        <v>45665</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" s="23">
+        <v>45700</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="N34" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O34" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I35" s="5">
+        <v>46395</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="5">
+        <v>45342</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N35" s="5">
+        <v>45713</v>
+      </c>
+      <c r="O35" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="5">
+        <v>43999</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="5">
+        <v>44967</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45615</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N36" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O36" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N37" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O37" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="5">
+        <v>45701</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N38" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O38" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="7">
+        <v>45490</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N39" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O39" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45343</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="5">
+        <v>46385</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="5">
+        <v>45434</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N40" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O40" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="7">
+        <v>45434</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N41" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O41" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45343</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="5">
+        <v>46385</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="5">
+        <v>45434</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N42" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O42" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="7">
+        <v>45434</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N43" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O43" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="26">
+        <v>45672</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="28">
+        <v>45687</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="N44" s="28">
+        <v>45705</v>
+      </c>
+      <c r="O44" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="5">
+        <v>45729</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L45" s="5">
+        <v>46003</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N45" s="5">
+        <v>45708</v>
+      </c>
+      <c r="O45" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I46" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N46" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O46" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45715</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="7">
+        <v>46992</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="7">
+        <v>45715</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="5">
+        <v>45715</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45672</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="7">
+        <v>46155</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="29">
+        <v>45707</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="N48" s="29">
+        <v>45715</v>
+      </c>
+      <c r="O48" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="7">
+        <v>46362</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="29">
+        <v>45653</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="N49" s="29">
+        <v>45715</v>
+      </c>
+      <c r="O49" s="5">
+        <v>45706</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="32">
+        <v>45700</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="I50" s="32">
+        <v>46795</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="32">
+        <v>45700</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="N50" s="32">
+        <v>45716</v>
+      </c>
+      <c r="O50" s="32">
+        <v>45701</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q50" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="32">
+        <v>45720</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="I51" s="32">
+        <v>46816</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="32">
+        <v>45720</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="32">
+        <v>45721</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" ht="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A1:Q51" xr:uid="{9B6093B9-0A77-4CD2-8CE3-D5F395ECB492}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47530D9-A435-4EE0-8590-59F10406217E}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2075,322 +4980,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="I2" s="5">
-        <v>46363</v>
+        <v>46395</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45713</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45719</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>46733</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46733</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="10">
-        <v>46324</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="10">
-        <v>45957</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="10">
-        <v>45715</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2398,13 +5038,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A135FE-6DBF-4306-A446-780AB8FD288B}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView topLeftCell="J9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2466,426 +5104,426 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I2" s="5">
         <v>44967</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5">
         <v>45715</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I3" s="5">
         <v>46232</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N3" s="5">
         <v>45715</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
         <v>45790</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N4" s="5">
         <v>45715</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="10">
         <v>46385</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N5" s="5">
         <v>45715</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I6" s="10">
         <v>46385</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N6" s="5">
         <v>45715</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I7" s="10">
         <v>46385</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N7" s="10">
         <v>45715</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
         <v>46385</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
         <v>45715</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
         <v>46385</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="N9" s="7">
         <v>45715</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2893,13 +5531,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE3C01-081C-42CB-A2B0-F35FFFFB5685}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2961,55 +5597,55 @@
     </row>
     <row r="2" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="I2" s="5">
         <v>46795</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N2" s="5">
         <v>45716</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3017,13 +5653,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FB1BC1-7C40-4A5D-9E51-862F873593A1}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3085,55 +5719,55 @@
     </row>
     <row r="2" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="N2" s="5">
         <v>45705</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3141,13 +5775,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EAAB43-B89D-458B-89C1-13B4E9F94A32}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3209,25 +5841,25 @@
     </row>
     <row r="2" spans="1:17" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>24</v>
@@ -3236,104 +5868,104 @@
         <v>45729</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N2" s="5">
         <v>45708</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>388</v>
       </c>
       <c r="I3" s="5">
         <v>46535</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N3" s="5">
         <v>45715</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>24</v>
@@ -3342,134 +5974,134 @@
         <v>46992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I5" s="10">
         <v>46155</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N5" s="5">
         <v>45715</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I6" s="10">
         <v>46362</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N6" s="5">
         <v>45715</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3478,12 +6110,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCF7AB2-31E8-4824-A0B5-4EDD6A45FE2E}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3543,163 +6173,322 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5">
-        <v>46636</v>
+        <v>46363</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>88</v>
+        <v>409</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45721</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>90</v>
+        <v>411</v>
       </c>
       <c r="N2" s="5">
         <v>45715</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="331.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45719</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46733</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="10">
+        <v>46324</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="L6" s="10">
+        <v>45721</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45957</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="5">
-        <v>46285</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="N7" s="10">
         <v>45715</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="7">
-        <v>46164</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45720</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>112</v>
+      <c r="O7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3708,12 +6497,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023F4DBA-F877-41D2-9B5E-FD37E83BBE21}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3773,322 +6560,216 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I2" s="5">
-        <v>45790</v>
+        <v>46636</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="N2" s="5">
         <v>45715</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I3" s="5">
-        <v>45790</v>
+        <v>46285</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="N3" s="5">
         <v>45715</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I4" s="7">
         <v>46164</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45720</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46172</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45705</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="10">
-        <v>46232</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="10">
-        <v>46710</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" s="10">
-        <v>45715</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45720</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46816</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7">
+        <v>45720</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45721</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4097,12 +6778,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B83DBDB-E3C2-4267-987A-7224A6012CA1}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4162,322 +6841,322 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5">
-        <v>45298</v>
+        <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="N2" s="5">
-        <v>45709</v>
+        <v>45715</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5">
-        <v>45701</v>
+        <v>45790</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N3" s="5">
-        <v>45708</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46164</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46172</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45705</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="10">
+        <v>46232</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>46174</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="M6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46733</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45709</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="10">
-        <v>46145</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="N6" s="5">
-        <v>45708</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="I7" s="10">
-        <v>46613</v>
+        <v>46710</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="N7" s="10">
-        <v>45694</v>
+        <v>45715</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4486,12 +7165,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1439769D-3B5B-4A64-87BD-D5AB7E4A6C71}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4551,269 +7228,322 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="I2" s="5">
-        <v>46779</v>
+        <v>45298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="N2" s="5">
-        <v>45715</v>
+        <v>45709</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="5">
-        <v>46804</v>
+        <v>45701</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45708</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46174</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46733</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45709</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="7">
-        <v>46315</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="P5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="10">
+        <v>46145</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45708</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="306" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46257</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="P6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="10">
-        <v>46166</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="I7" s="10">
+        <v>46613</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="10">
+        <v>45694</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="N6" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>245</v>
+      <c r="P7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4822,12 +7552,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C30992D-E806-41AC-B512-1203DC1A9745}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4887,269 +7615,269 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="I2" s="5">
-        <v>45790</v>
+        <v>46779</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="N2" s="5">
         <v>45715</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5">
-        <v>45790</v>
+        <v>46804</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46315</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="P4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="306" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46257</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="5">
         <v>45715</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="7">
-        <v>46549</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="N4" s="5">
-        <v>45713</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46636</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45707</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="P5" s="8" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="10">
+        <v>46166</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="N6" s="5">
         <v>45715</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5158,12 +7886,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFEAF95-3094-4442-BD72-D9DFC14808AB}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5223,110 +7949,269 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="I2" s="5">
-        <v>45466</v>
+        <v>45790</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45685</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45790</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="N3" s="5">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>31</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46549</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45713</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46636</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45707</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5335,12 +8220,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831F88B-2A1A-4AC8-A6C7-40D4F679A432}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5400,110 +8283,110 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="I2" s="5">
-        <v>46324</v>
+        <v>45466</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N2" s="5">
-        <v>45715</v>
+        <v>45685</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="5">
-        <v>46232</v>
+        <v>274</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45716</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" s="5">
-        <v>45715</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>312</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5512,12 +8395,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78125BEC-01F2-40BD-A5F0-3617B8155402}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView topLeftCell="Q1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5577,57 +8458,110 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="I2" s="5">
-        <v>46395</v>
+        <v>46324</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="5">
+        <v>46232</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="N2" s="5">
-        <v>45713</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
+      <c r="P3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/PRUEBA HSA 26.xlsx
+++ b/PRUEBA HSA 26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\HSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9D1F9-FE84-4CDD-BD2E-C0FDDF6C866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A0189-0F34-4750-9D2C-7BABD61E2353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,7 +2180,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
